--- a/153-3.xlsx
+++ b/153-3.xlsx
@@ -5700,13 +5700,13 @@
     <t>VMKB/41</t>
   </si>
   <si>
-    <t>AD/BI-LC-JE-BA/AO-CF</t>
-  </si>
-  <si>
     <t>RNSY-663</t>
   </si>
   <si>
     <t>JPZQGBNY</t>
+  </si>
+  <si>
+    <t>AD/BI-LC-JE-BA/AG-CF</t>
   </si>
 </sst>
 </file>
@@ -6081,7 +6081,7 @@
   <dimension ref="A1:F433"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6115,10 +6115,10 @@
         <v>871</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>875</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>876</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>872</v>
@@ -6127,7 +6127,7 @@
         <v>873</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
